--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lu/Dropbox/Hertie/3/Thesis/Thesis-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E30670-7A46-4E40-9DF9-2AE5C7C65016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E69D01-5440-494C-AA0F-B80401560060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="15820" windowHeight="16200" xr2:uid="{D4285D96-9C10-B149-A475-C24BEAFB0F91}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t>AGE_R</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>soft skills</t>
+  </si>
+  <si>
+    <t>g_q05a</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB68002-A82A-584E-B2EE-26AB35695094}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,8 +1604,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>3</v>
+      <c r="A39" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>38</v>
@@ -2021,19 +2024,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="15" t="s">
         <v>185</v>
       </c>
     </row>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lu/Dropbox/Hertie/3/Thesis/Thesis-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E69D01-5440-494C-AA0F-B80401560060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D7256-11A8-1445-8454-81C6474CBAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="15820" windowHeight="16200" xr2:uid="{D4285D96-9C10-B149-A475-C24BEAFB0F91}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15820" windowHeight="16200" xr2:uid="{D4285D96-9C10-B149-A475-C24BEAFB0F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB68002-A82A-584E-B2EE-26AB35695094}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lu/Dropbox/Hertie/3/Thesis/Thesis-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D7256-11A8-1445-8454-81C6474CBAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4709E83-3221-164C-B100-3007E22295C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15820" windowHeight="16200" xr2:uid="{D4285D96-9C10-B149-A475-C24BEAFB0F91}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="21780" windowHeight="16200" activeTab="1" xr2:uid="{D4285D96-9C10-B149-A475-C24BEAFB0F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="904">
   <si>
     <t>AGE_R</t>
   </si>
@@ -610,6 +612,2142 @@
   </si>
   <si>
     <t>g_q05a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME02 Baja California Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME03 Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME04 Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME05 Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME06 Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME07 Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME08 Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME09 Distrito Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME10 Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME11 Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME12 Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME13 Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME14 Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME15 Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME16 Michoacan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME17 Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME18 Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME19 Nuevo Leon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME20 Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME21 Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME22 Queretaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME23 Quintana Roo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME24 San Luis Potosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME25 Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME26 Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME27 Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME28 Tamaulipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME29 Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME30 Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ME31 Yucatan</t>
+  </si>
+  <si>
+    <t>ME01 Aguacalientes</t>
+  </si>
+  <si>
+    <t>ME32 Zacatecas</t>
+  </si>
+  <si>
+    <t>#Gender</t>
+  </si>
+  <si>
+    <t>#B_Q01a</t>
+  </si>
+  <si>
+    <t>#B_Q01a_T</t>
+  </si>
+  <si>
+    <t>#B_Q02a</t>
+  </si>
+  <si>
+    <t>#B_Q02c</t>
+  </si>
+  <si>
+    <t>#B_Q10c</t>
+  </si>
+  <si>
+    <t>#B_Q01b</t>
+  </si>
+  <si>
+    <t># C_Q01c</t>
+  </si>
+  <si>
+    <t>#C_Q02a</t>
+  </si>
+  <si>
+    <t>#D_Q03</t>
+  </si>
+  <si>
+    <t>#D_Q14</t>
+  </si>
+  <si>
+    <t>#D_Q16a</t>
+  </si>
+  <si>
+    <t>#F_Q01b</t>
+  </si>
+  <si>
+    <t>#F_Q02b</t>
+  </si>
+  <si>
+    <t>#F_Q02c</t>
+  </si>
+  <si>
+    <t>#F_Q02d</t>
+  </si>
+  <si>
+    <t>#F_Q02e</t>
+  </si>
+  <si>
+    <t>#F_Q03b</t>
+  </si>
+  <si>
+    <t>#F_Q04a</t>
+  </si>
+  <si>
+    <t>#F_Q04b</t>
+  </si>
+  <si>
+    <t>#F_Q05a</t>
+  </si>
+  <si>
+    <t>#F_Q05b</t>
+  </si>
+  <si>
+    <t>#F_Q07b</t>
+  </si>
+  <si>
+    <t># G_Q01a</t>
+  </si>
+  <si>
+    <t># G_Q02a</t>
+  </si>
+  <si>
+    <t># G_Q02b</t>
+  </si>
+  <si>
+    <t># G_Q02c</t>
+  </si>
+  <si>
+    <t># G_Q02d</t>
+  </si>
+  <si>
+    <t># G_Q03b</t>
+  </si>
+  <si>
+    <t># G_Q03c</t>
+  </si>
+  <si>
+    <t># G_Q03d</t>
+  </si>
+  <si>
+    <t># G_Q03f</t>
+  </si>
+  <si>
+    <t># G_Q03g</t>
+  </si>
+  <si>
+    <t># G_Q03h</t>
+  </si>
+  <si>
+    <t># G_Q04</t>
+  </si>
+  <si>
+    <t># G_Q05a</t>
+  </si>
+  <si>
+    <t># G_Q05c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#G_Q05d </t>
+  </si>
+  <si>
+    <t>#G_Q05e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#G_Q05g </t>
+  </si>
+  <si>
+    <t>#G_Q05h</t>
+  </si>
+  <si>
+    <t>#G_Q06</t>
+  </si>
+  <si>
+    <t>#G_Q07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#G_Q08 </t>
+  </si>
+  <si>
+    <t>#H_q01a</t>
+  </si>
+  <si>
+    <t>#H_q01b</t>
+  </si>
+  <si>
+    <t>#H_q01b_T</t>
+  </si>
+  <si>
+    <t>#H_q01c</t>
+  </si>
+  <si>
+    <t>#H_q01c_T</t>
+  </si>
+  <si>
+    <t>#H_q01d</t>
+  </si>
+  <si>
+    <t>#H_q01e</t>
+  </si>
+  <si>
+    <t>#H_q01e_T</t>
+  </si>
+  <si>
+    <t>#H_q01f</t>
+  </si>
+  <si>
+    <t>#H_q01g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#H_q01h </t>
+  </si>
+  <si>
+    <t>#H_q02a</t>
+  </si>
+  <si>
+    <t>#H_q02b</t>
+  </si>
+  <si>
+    <t>#H_q02c</t>
+  </si>
+  <si>
+    <t>#H_q02d</t>
+  </si>
+  <si>
+    <t>#H_q03b</t>
+  </si>
+  <si>
+    <t>#H_q03c</t>
+  </si>
+  <si>
+    <t>#H_q03d</t>
+  </si>
+  <si>
+    <t>#H_q03f</t>
+  </si>
+  <si>
+    <t>#H_q03g</t>
+  </si>
+  <si>
+    <t>#H_q03h</t>
+  </si>
+  <si>
+    <t>#H_Q04a</t>
+  </si>
+  <si>
+    <t>#H_Q04b</t>
+  </si>
+  <si>
+    <t>#H_Q05a</t>
+  </si>
+  <si>
+    <t>#H_Q05c</t>
+  </si>
+  <si>
+    <t>#H_Q05d</t>
+  </si>
+  <si>
+    <t>#H_Q05e</t>
+  </si>
+  <si>
+    <t>#H_Q05f</t>
+  </si>
+  <si>
+    <t>#H_Q05g</t>
+  </si>
+  <si>
+    <t>#H_Q05h</t>
+  </si>
+  <si>
+    <t>#J_Q03a</t>
+  </si>
+  <si>
+    <t>#J_Q03b</t>
+  </si>
+  <si>
+    <t>#J_Q06b</t>
+  </si>
+  <si>
+    <t>#J_Q07b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#droping NAs from the independent variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Number of women and men </t>
+  </si>
+  <si>
+    <t># Education status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Work status </t>
+  </si>
+  <si>
+    <t># ICT skills in Job</t>
+  </si>
+  <si>
+    <t>#ICT skills in daily life</t>
+  </si>
+  <si>
+    <t># Children and parents level of education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Soft skills </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Literacy work </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Numeracy work </t>
+  </si>
+  <si>
+    <t># Literacy life</t>
+  </si>
+  <si>
+    <t># Numeracy life</t>
+  </si>
+  <si>
+    <t># Region</t>
+  </si>
+  <si>
+    <t>## Income variables</t>
+  </si>
+  <si>
+    <t>Mexico %&gt;% count(YEARLYINCPR) #2847</t>
+  </si>
+  <si>
+    <t>Mexico %&gt;% count(EARNMTH) #2847</t>
+  </si>
+  <si>
+    <t>Mexico %&gt;% count(EARNMTHPPP) #3t68</t>
+  </si>
+  <si>
+    <t>Mexico %&gt;% count(EARNHR)#3758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico %&gt;% count(EARNHRBONUS) # 97 ESPACIOS VACIOS </t>
+  </si>
+  <si>
+    <t>Mexico %&gt;% count(ICTWORK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico %&gt;% count(EARNHRBONUSPPP) # 97 vacios usd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico %&gt;% count(EARNFLAG) </t>
+  </si>
+  <si>
+    <t>gg_miss_var(newEcuador)</t>
+  </si>
+  <si>
+    <t>table(is.na(newEcuador$YEARLYINCPR))</t>
+  </si>
+  <si>
+    <t>table(is.na(newEcuador$MONTHLYINCPR))</t>
+  </si>
+  <si>
+    <t>newEcuador1 &lt;- drop_na(newEcuador, YEARLYINCPR)</t>
+  </si>
+  <si>
+    <t>barplot(table(newEcuador1$GENDER_R))</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(GENDER_R)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q01a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q01a_T)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q02a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q02c) #x - 3224 V ESTA 1</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q10c) #x- 3176 V ESTA 2</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(B_Q01b) # 2134 v ESTA 3</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(C_Q01a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(C_Q01c) # 3459 v ESTA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(C_Q02a) # 3459 v ESTA 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(D_Q03) # D 42 - r21 </t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(D_Q14) #</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(D_Q16a) # V 1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(D_Q18a_T) # 13 NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q04) # experience with computer in job yes no </t>
+  </si>
+  <si>
+    <t>newEcuador1%&gt;% count(G_Q04_T) #** 4 N</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(COMPUTEREXPERIENCE) #******</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05a) # 2377 v ESTA 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05c) # 2377 v ESTA 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05d) # 2377 ESTA 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05e) # 2377 ESTA 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05g) # 2377 ESTA 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q05h) # 2377 ESTA 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q06) # 2377 ESTA 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q07) # 2377 ESTA 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(G_Q08) # 2377 ESTA 15 </t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q04a) # 1074 V experience with compiuter every life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q04b) # 1198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05a) # 2205 ESTA 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05c) # 2205 ESTA 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05d) # 2205 ESTA 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05e) # 2205 ESTA 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05f) # 2205 ESTA 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05g) # 2205 ESTA 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(H_Q05h) # 2205 ESTA 22 </t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(J_Q03a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(J_Q03b) #943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(J_Q06b) </t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q01b) #748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1 %&gt;% count(F_Q02b) </t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q02c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q02d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q02e)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q03b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q04a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q04b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q05a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(F_Q05b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q01a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q02a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q02b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q02c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q02d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03f)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03g)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(G_Q03h)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01b_T)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01e)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01e_T)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01f)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01g)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q01h)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q02a)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q02b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q02c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q02d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03b)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03c)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03d)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03f)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03g)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(H_Q03h)</t>
+  </si>
+  <si>
+    <t>newEcuador1 %&gt;% count(REG_TL2)</t>
+  </si>
+  <si>
+    <t>newEcuador1$GENDER_Rn[newEcuador1$GENDER_R == "1"] = 0</t>
+  </si>
+  <si>
+    <t>newEcuador1$GENDER_Rn[newEcuador1$GENDER_R == "2"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "2"] = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1$B_Q01an[newEcuador1$B_Q01a == "5"] = 5 </t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "6"] = 6</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "7"] = 7</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "11"] = 11</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "12"] = 12</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "13"] = 13</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "14"] = 14</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01an[newEcuador1$B_Q01a == "15"] = 15</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01a_Tn[newEcuador1$B_Q01a_T == "M"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01a_Tn[newEcuador1$B_Q01a_T == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01a_Tn[newEcuador1$B_Q01a_T == "2"] = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1$B_Q01a_Tn[newEcuador1$B_Q01a_T == "3"] = 3 </t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01a_Tn[newEcuador1$B_Q01a_T == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02an[newEcuador1$B_Q02a == "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02an[newEcuador1$B_Q02a == "1"] = 0</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02an[newEcuador1$B_Q02a== "2"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "6"] = 6</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "7"] = 7</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "8"] = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "9"] = 9 </t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q02cn[newEcuador1$B_Q02c == "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q10cn[newEcuador1$B_Q10c == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q10cn[newEcuador1$B_Q10c == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q10cn[newEcuador1$B_Q10c == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q10cn[newEcuador1$B_Q10c == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q10cn[newEcuador1$B_Q10c == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "6"] = 6</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "7"] = 7</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "8"] = 8</t>
+  </si>
+  <si>
+    <t>newEcuador1$B_Q01bn[newEcuador1$B_Q01b == "9"] = 9</t>
+  </si>
+  <si>
+    <t>newEcuador1$C_Q01cn[newEcuador1$C_Q01c == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$C_Q02an[newEcuador1$C_Q02a == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q03n[newEcuador1$D_Q03 == "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q03n[newEcuador1$D_Q03 == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q03n[newEcuador1$D_Q03 == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q03n[newEcuador1$D_Q03 == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q03n[newEcuador1$D_Q03 == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q14n[newEcuador1$D_Q14 == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "6"] = 6</t>
+  </si>
+  <si>
+    <t>newEcuador1$D_Q16an[newEcuador1$D_Q16a == "7"] = 7</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q01bn[newEcuador1$F_Q01b== "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02bn[newEcuador1$F_Q02b== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02cn[newEcuador1$F_Q02c== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "D"] = NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "N"] = NA </t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02dn[newEcuador1$F_Q02d== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "5"] = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEcuador1$F_Q02en[newEcuador1$F_Q02e== "N"] = NA </t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q02en[newEcuador1$F_Q02e== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q03bn[newEcuador1$F_Q03b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04an[newEcuador1$F_Q04a== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q04bn[newEcuador1$F_Q04b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05an[newEcuador1$F_Q05a == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q05bn[newEcuador1$F_Q05b == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q07bn[newEcuador1$F_Q07b == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q07bn[newEcuador1$F_Q07b == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q07bn[newEcuador1$F_Q07b == "1"] = 0</t>
+  </si>
+  <si>
+    <t>newEcuador1$F_Q07bn[newEcuador1$F_Q07b == "2"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q01an[newEcuador1$G_Q01a == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02an[newEcuador1$G_Q02a == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02bn[newEcuador1$G_Q02b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02cn[newEcuador1$G_Q02c == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q02dn[newEcuador1$G_Q02d == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03bn[newEcuador1$G_Q03b == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03cn[newEcuador1$G_Q03c == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03dn[newEcuador1$G_Q03d == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03fn[newEcuador1$G_Q03f == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03gn[newEcuador1$G_Q03g == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q03hn[newEcuador1$G_Q03h == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q04n[newEcuador1$G_Q04 == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q04n[newEcuador1$G_Q04 == "1"] = 0</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q04n[newEcuador1$G_Q04 == "2"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05an[newEcuador1$G_Q05a == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05cn[newEcuador1$G_Q05c == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05dn[newEcuador1$G_Q05d == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05en[newEcuador1$G_Q05e == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05gn[newEcuador1$G_Q05g == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q05hn[newEcuador1$G_Q05h == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "R"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q06n[newEcuador1$G_Q06 == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q07n[newEcuador1$G_Q07 == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q07n[newEcuador1$G_Q07 == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q07n[newEcuador1$G_Q07 == "1"] =0</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q07n[newEcuador1$G_Q07 == "2"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "D"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "R"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "1"] =0</t>
+  </si>
+  <si>
+    <t>newEcuador1$G_Q08n[newEcuador1$G_Q08 == "2"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01an[newEcuador1$H_Q01a == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01bn[newEcuador1$H_Q01b == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01b_Tn[newEcuador1$H_Q01b_T == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01cn[newEcuador1$H_Q01c == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01c_Tn[newEcuador1$H_Q01c_T == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01dn[newEcuador1$H_Q01d == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "R"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01en[newEcuador1$H_Q01e == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "R"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01e_Tn[newEcuador1$H_Q01e_T == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "R"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01fn[newEcuador1$H_Q01f == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01gn[newEcuador1$H_Q01g == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q01hn[newEcuador1$H_Q01h== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02an[newEcuador1$H_Q02a== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02bn[newEcuador1$H_Q02b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02cn[newEcuador1$H_Q02c== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q02dn[newEcuador1$H_Q02d== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03bn[newEcuador1$H_Q03b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03cn[newEcuador1$H_Q03c== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03dn[newEcuador1$H_Q03d== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03fn[newEcuador1$H_Q03f== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03gn[newEcuador1$H_Q03g== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q03hn[newEcuador1$H_Q03h== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04an[newEcuador1$H_Q04a == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04an[newEcuador1$H_Q04a == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04an[newEcuador1$H_Q04a == "1"] =0</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04an[newEcuador1$H_Q04a == "2"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04bn[newEcuador1$H_Q04b == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04bn[newEcuador1$H_Q04b == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04bn[newEcuador1$H_Q04b == "1"] =0</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q04bn[newEcuador1$H_Q04b == "2"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05an[newEcuador1$H_Q05a == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05cn[newEcuador1$H_Q05c == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05dn[newEcuador1$H_Q05d == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05en[newEcuador1$H_Q05e == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05fn[newEcuador1$H_Q05f == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05gn[newEcuador1$H_Q05g == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "V"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "N"] =NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "1"] =1</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "2"] =2</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "3"] =3</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "4"] =4</t>
+  </si>
+  <si>
+    <t>newEcuador1$H_Q05hn[newEcuador1$H_Q05h == "5"] =5</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03an[newEcuador1$J_Q03a == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03an[newEcuador1$J_Q03a == "1"] = 0</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03an[newEcuador1$J_Q03a == "2"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "V"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "4"] = 4</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "5"] = 5</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "6"] = 6</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "7"] = 7</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "8"] = 8</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "9"] = 9</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "10"] = 10</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "11"] = 11</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "12"] = 12</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "13"] = 13</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "16"] = 16</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q03bn[newEcuador1$J_Q03b == "19"] = 19</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q06bn[newEcuador1$J_Q06b== "R"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "1"] = 1</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "2"] = 2</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "3"] = 3</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "D"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "N"] = NA</t>
+  </si>
+  <si>
+    <t>newEcuador1$J_Q07bn[newEcuador1$J_Q07b== "R"] = NA</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB68002-A82A-584E-B2EE-26AB35695094}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A64" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2215,7 +4353,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -2226,7 +4364,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -2237,7 +4375,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -2248,7 +4386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>85</v>
       </c>
@@ -2259,7 +4397,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>167</v>
       </c>
@@ -2268,10 +4406,3598 @@
       </c>
       <c r="C85" t="s">
         <v>170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D4919B-5106-0640-9681-2C142D0F179A}">
+  <dimension ref="A1:A726"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A727"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6BB2C3-184C-6B46-B66B-5D7AFE23759C}">
+  <dimension ref="A1:A129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>